--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F09999C-DD77-704E-A034-9D12A5EEB849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EAC28E-5C2F-7F4A-BB95-545442F05EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="5880" windowWidth="27900" windowHeight="16940" activeTab="2" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="22320" yWindow="5900" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="193">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -50,16 +50,6 @@
     <t>日時</t>
     <rPh sb="0" eb="2">
       <t xml:space="preserve">ニチジ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>以降を無視</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">イコウヲ </t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t xml:space="preserve">ムシ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -712,6 +702,43 @@
   </si>
   <si>
     <t>hour</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以前 / 以降</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イゼン </t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下を無視</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イカ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ムシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降</t>
+  </si>
+  <si>
+    <t>以降</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以降</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">イコウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1107,25 +1134,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1146,48 +1173,48 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1199,7 +1226,7 @@
         <v>1991</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -1207,16 +1234,16 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1">
         <v>61</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1228,7 +1255,7 @@
         <v>1991</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -1236,16 +1263,16 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1">
         <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1257,7 +1284,7 @@
         <v>1991</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -1265,16 +1292,16 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1">
         <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1286,7 +1313,7 @@
         <v>1991</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1294,16 +1321,16 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1315,7 +1342,7 @@
         <v>1992</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1323,16 +1350,16 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1344,7 +1371,7 @@
         <v>1992</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1352,16 +1379,16 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1373,7 +1400,7 @@
         <v>1991</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1389,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22011244-DD10-664B-97BB-E936425FC29E}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1397,21 +1424,21 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1425,7 +1452,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -1439,7 +1466,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>7</v>
@@ -1459,9 +1486,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1470,7 +1497,7 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1481,1901 +1508,2015 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="C2" s="1">
         <v>29890</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1">
         <v>33785</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="1">
         <v>33878</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>33878</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
-      </c>
-      <c r="E5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="1">
         <v>34120</v>
       </c>
       <c r="D6" t="s">
-        <v>188</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1">
         <v>34151</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1">
         <v>34491</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1">
         <v>34516</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C10" s="1">
         <v>34578</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1">
         <v>34638</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1">
         <v>34662</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1">
         <v>34754</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1">
         <v>34874</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1">
         <v>34874</v>
       </c>
       <c r="D15" t="s">
-        <v>188</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>34881</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
-      </c>
-      <c r="E16" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="3"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>34973</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F17" s="3"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="3"/>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="H17" s="2"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="1">
         <v>35065</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="H18" s="2"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="1">
         <v>35234</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="2"/>
+      <c r="F19" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1">
         <v>35247</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="H20" s="2"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1">
         <v>35582</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1">
         <v>35582</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1">
         <v>35582</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1">
         <v>35582</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="F24" s="3"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1">
         <v>35637</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" s="1">
         <v>35642</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2" t="s">
+        <v>80</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1">
         <v>35642</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="1">
         <v>35642</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>82</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1">
         <v>35643</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C30" s="1">
         <v>35643</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F30" s="2"/>
+      <c r="F30" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31" s="1">
         <v>35643</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="1">
         <v>35643</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F32" s="2"/>
+      <c r="F32" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1">
         <v>35643</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="1">
         <v>35643</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="F34" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C35" s="1">
         <v>35643</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" s="3"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1">
         <v>35643</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
-      </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="3"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C37" s="1">
         <v>35643</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E37" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="3"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1">
         <v>35643</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E38" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="3"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1">
         <v>35674</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E39" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G39" s="2"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="H39" s="2"/>
+      <c r="I39" s="3"/>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1">
         <v>35674</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E40" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="H40" s="2"/>
+      <c r="I40" s="3"/>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1">
         <v>35674</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E41" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C42" s="1">
         <v>35765</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E42" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="3"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="H42" s="2"/>
+      <c r="I42" s="3"/>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1">
         <v>35788</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1">
         <v>35788</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C45" s="1">
         <v>35855</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46" s="1">
         <v>35855</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F46" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1">
         <v>35855</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E47" t="s">
+        <v>190</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C48" s="1">
         <v>35855</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F48" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E48" t="s">
+        <v>190</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1">
         <v>35855</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F49" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E49" t="s">
+        <v>190</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C50" s="1">
         <v>35855</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F50" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E50" t="s">
+        <v>190</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1">
         <v>35855</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F51" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E51" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="1">
         <v>35855</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F52" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E52" t="s">
+        <v>190</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C53" s="1">
         <v>35916</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F53" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="H53" s="2"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C54" s="1">
         <v>35916</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F54" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="H54" s="2"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C55" s="1">
         <v>35916</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
-      </c>
-      <c r="E55" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="3"/>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="C56" s="1">
         <v>35916</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1">
         <v>35916</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="F57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C58" s="1">
         <v>35916</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>122</v>
+      </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C59" s="1">
         <v>35916</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>109</v>
+      </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C60" s="1">
         <v>35916</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C61" s="1">
         <v>35916</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
+      <c r="F61" s="3"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1">
         <v>35916</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F62" s="2"/>
+      <c r="F62" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1">
         <v>35916</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C64" s="1">
         <v>35916</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="1">
         <v>35916</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="F65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C66" s="1">
         <v>35916</v>
       </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="2"/>
+      <c r="F66" s="3"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C67" s="1">
         <v>35916</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C68" s="1">
         <v>35916</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1">
         <v>35916</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8">
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C70" s="1">
         <v>35916</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>119</v>
+      </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8">
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1">
         <v>35916</v>
       </c>
-      <c r="E71" s="3"/>
-      <c r="F71" s="2"/>
+      <c r="F71" s="3"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8">
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C72" s="1">
         <v>35916</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C73" s="1">
         <v>35916</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>126</v>
+      </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C74" s="1">
         <v>33420</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
-      </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E74" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="3"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8">
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C75" s="1">
         <v>33420</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F75" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E75" t="s">
+        <v>190</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C76" s="1">
         <v>33420</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F76" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E76" t="s">
+        <v>190</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>131</v>
+      </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C77" s="1">
         <v>33482</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>133</v>
+      </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C78" s="1">
         <v>33482</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C79" s="1">
         <v>33482</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>135</v>
+      </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C80" s="1">
         <v>33482</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>136</v>
+      </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8">
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C81" s="1">
         <v>33482</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C82" s="1">
         <v>33542</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F82" s="2"/>
+      <c r="F82" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8">
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1">
         <v>33542</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F83" s="2"/>
+      <c r="F83" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8">
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C84" s="1">
         <v>33542</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F84" s="2"/>
+      <c r="F84" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8">
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C85" s="1">
         <v>33597</v>
       </c>
-      <c r="E85" s="3"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8">
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="1">
         <v>33756</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" s="3"/>
-      <c r="F86" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E86" t="s">
+        <v>190</v>
+      </c>
+      <c r="F86" s="3"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="1:8">
+      <c r="H86" s="2"/>
+      <c r="I86" s="3"/>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C87" s="1">
         <v>33756</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F87" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E87" t="s">
+        <v>190</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="G87" s="2"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="1:8">
+      <c r="H87" s="2"/>
+      <c r="I87" s="3"/>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" s="1">
         <v>33756</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F88" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E88" t="s">
+        <v>190</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="1:8">
+      <c r="H88" s="2"/>
+      <c r="I88" s="3"/>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="1">
         <v>33756</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
-      </c>
-      <c r="E89" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E89" t="s">
+        <v>190</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="3"/>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C90" s="1">
         <v>33786</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F90" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E90" t="s">
+        <v>190</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8">
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C91" s="1">
         <v>33786</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
-      </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E91" t="s">
+        <v>190</v>
+      </c>
+      <c r="F91" s="3"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8">
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C92" s="1">
         <v>33786</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
-      </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E92" t="s">
+        <v>190</v>
+      </c>
+      <c r="F92" s="3"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8">
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C93" s="1">
         <v>33848</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8">
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C94" s="1">
         <v>33848</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="F94" s="2"/>
+      <c r="F94" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8">
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C95" s="1">
         <v>33908</v>
       </c>
-      <c r="E95" s="3"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="3"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8">
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C96" s="1">
         <v>33848</v>
       </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="2"/>
+      <c r="F96" s="3"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8">
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C97" s="1">
         <v>33848</v>
       </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="3"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8">
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C98" s="1">
         <v>33970</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" s="3"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8">
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C99" s="1">
         <v>33970</v>
       </c>
       <c r="D99" t="s">
-        <v>187</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F99" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E99" t="s">
+        <v>190</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8">
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C100" s="1">
         <v>34090</v>
       </c>
       <c r="D100" t="s">
-        <v>187</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E100" t="s">
+        <v>190</v>
+      </c>
+      <c r="F100" s="3"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C101" s="1">
         <v>34090</v>
       </c>
       <c r="D101" t="s">
-        <v>187</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F101" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E101" t="s">
+        <v>190</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8">
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C102" s="1">
         <v>34090</v>
       </c>
       <c r="D102" t="s">
-        <v>187</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F102" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E102" t="s">
+        <v>190</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C103" s="1">
         <v>34090</v>
       </c>
       <c r="D103" t="s">
-        <v>187</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F103" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E103" t="s">
+        <v>190</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C104" s="1">
         <v>34090</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F104" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E104" t="s">
+        <v>190</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8">
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C105" s="1">
         <v>34090</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E105" t="s">
+        <v>190</v>
+      </c>
+      <c r="F105" s="3"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:8">
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C106" s="1">
         <v>34273</v>
       </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="2"/>
+      <c r="F106" s="3"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8">
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C107" s="1">
         <v>33963</v>
@@ -3383,17 +3524,20 @@
       <c r="D107" t="s">
         <v>187</v>
       </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="2"/>
+      <c r="E107" t="s">
+        <v>190</v>
+      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="1">
         <v>33963</v>
@@ -3401,17 +3545,20 @@
       <c r="D108" t="s">
         <v>187</v>
       </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="2"/>
+      <c r="E108" t="s">
+        <v>190</v>
+      </c>
+      <c r="F108" s="3"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8">
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" s="1">
         <v>33963</v>
@@ -3419,17 +3566,20 @@
       <c r="D109" t="s">
         <v>187</v>
       </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="2"/>
+      <c r="E109" t="s">
+        <v>190</v>
+      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8">
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="1">
         <v>33963</v>
@@ -3437,525 +3587,561 @@
       <c r="D110" t="s">
         <v>187</v>
       </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="2"/>
+      <c r="E110" t="s">
+        <v>190</v>
+      </c>
+      <c r="F110" s="3"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:8">
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="1">
         <v>34151</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
-      </c>
-      <c r="E111" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E111" t="s">
+        <v>190</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="3"/>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="C112" s="1">
         <v>34212</v>
       </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="2"/>
+      <c r="F112" s="3"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8">
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C113" s="1">
         <v>34212</v>
       </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="2"/>
+      <c r="F113" s="3"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8">
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C114" s="1">
         <v>34212</v>
       </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="2"/>
+      <c r="F114" s="3"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:8">
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C115" s="1">
         <v>34486</v>
       </c>
       <c r="D115" t="s">
-        <v>187</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E115" t="s">
+        <v>190</v>
+      </c>
+      <c r="F115" s="3"/>
       <c r="G115" s="2"/>
-      <c r="H115" s="3"/>
-    </row>
-    <row r="116" spans="1:8">
+      <c r="H115" s="2"/>
+      <c r="I115" s="3"/>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C116" s="1">
         <v>34486</v>
       </c>
       <c r="D116" t="s">
-        <v>187</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E116" t="s">
+        <v>190</v>
+      </c>
+      <c r="F116" s="3"/>
       <c r="G116" s="2"/>
-      <c r="H116" s="3"/>
-    </row>
-    <row r="117" spans="1:8">
+      <c r="H116" s="2"/>
+      <c r="I116" s="3"/>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C117" s="1">
         <v>34486</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E117" t="s">
+        <v>190</v>
+      </c>
+      <c r="F117" s="3"/>
       <c r="G117" s="2"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" spans="1:8">
+      <c r="H117" s="2"/>
+      <c r="I117" s="3"/>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C118" s="1">
         <v>34693</v>
       </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="2"/>
+      <c r="F118" s="3"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8">
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C119" s="1">
         <v>34693</v>
       </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="2"/>
+      <c r="F119" s="3"/>
       <c r="G119" s="2"/>
       <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:8">
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C120" s="1">
         <v>34693</v>
       </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="2"/>
+      <c r="F120" s="3"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8">
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C121" s="1">
         <v>34693</v>
       </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="2"/>
+      <c r="F121" s="3"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C122" s="1">
         <v>34662</v>
       </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="2"/>
+      <c r="F122" s="3"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8">
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C123" s="1">
         <v>34662</v>
       </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="2"/>
+      <c r="F123" s="3"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8">
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124" s="1">
         <v>34912</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E124" t="s">
+        <v>190</v>
+      </c>
+      <c r="F124" s="3"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8">
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" s="1">
         <v>34912</v>
       </c>
       <c r="D125" t="s">
-        <v>187</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E125" t="s">
+        <v>190</v>
+      </c>
+      <c r="F125" s="3"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8">
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" s="1">
         <v>34881</v>
       </c>
       <c r="D126" t="s">
-        <v>187</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E126" t="s">
+        <v>190</v>
+      </c>
+      <c r="F126" s="3"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8">
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C127" s="1">
         <v>34881</v>
       </c>
       <c r="D127" t="s">
-        <v>187</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E127" t="s">
+        <v>190</v>
+      </c>
+      <c r="F127" s="3"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8">
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C128" s="1">
         <v>34881</v>
       </c>
       <c r="D128" t="s">
-        <v>187</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F128" s="3"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8">
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C129" s="1">
         <v>34912</v>
       </c>
       <c r="D129" t="s">
-        <v>187</v>
-      </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E129" t="s">
+        <v>190</v>
+      </c>
+      <c r="F129" s="3"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8">
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C130" s="1">
         <v>34912</v>
       </c>
       <c r="D130" t="s">
-        <v>187</v>
-      </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="E130" t="s">
+        <v>190</v>
+      </c>
+      <c r="F130" s="3"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8">
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C131" s="1">
         <v>35234</v>
       </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="2"/>
+      <c r="F131" s="3"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="1:8">
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C132" s="1">
         <v>35234</v>
       </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="2"/>
+      <c r="F132" s="3"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8">
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C133" s="1">
         <v>35234</v>
       </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="2"/>
+      <c r="F133" s="3"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="1:8">
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C134" s="1">
         <v>35234</v>
       </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="2"/>
+      <c r="F134" s="3"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="1:8">
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C135" s="1">
         <v>35234</v>
       </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="2"/>
+      <c r="F135" s="3"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-    </row>
-    <row r="136" spans="1:8">
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C136" s="1">
         <v>35234</v>
       </c>
-      <c r="E136" s="3"/>
-      <c r="F136" s="2"/>
+      <c r="F136" s="3"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="1:8">
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C137" s="1">
         <v>35234</v>
       </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="2"/>
+      <c r="F137" s="3"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
-    </row>
-    <row r="138" spans="1:8">
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C138" s="1">
         <v>35247</v>
       </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="2"/>
+      <c r="F138" s="3"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="1:8">
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C139" s="1">
         <v>35247</v>
       </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="2"/>
+      <c r="F139" s="3"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:8">
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C140" s="1">
         <v>35247</v>
       </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="2"/>
+      <c r="F140" s="3"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:8">
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C141" s="1">
         <v>35247</v>
       </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="2"/>
+      <c r="F141" s="3"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:8">
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C142" s="1">
         <v>35247</v>
       </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="2"/>
+      <c r="F142" s="3"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EAC28E-5C2F-7F4A-BB95-545442F05EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D090A53-E16A-A049-AA3F-3FC9CCAD3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22320" yWindow="5900" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="194">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -738,6 +738,13 @@
     <t>以降</t>
     <rPh sb="0" eb="1">
       <t xml:space="preserve">イコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トム・リドル入寮</t>
+    <rPh sb="6" eb="8">
+      <t xml:space="preserve">ニュウリョウ </t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1486,10 +1493,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:I142"/>
+  <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4143,6 +4150,17 @@
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
     </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C143" s="1">
+        <v>14124</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D090A53-E16A-A049-AA3F-3FC9CCAD3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8D3E89-63ED-BC43-AB1A-5C41F902A888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="5900" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="2" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
     <sheet name="キャラクター" sheetId="2" r:id="rId2"/>
     <sheet name="教育課程" sheetId="3" r:id="rId3"/>
     <sheet name="イベント" sheetId="4" r:id="rId4"/>
+    <sheet name="期間イベント" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="210">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -61,27 +62,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>名称</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">メイショウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>年数</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">ネンスウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始月</t>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ツキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開始年齢</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">カイシネンレイ </t>
@@ -114,53 +94,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>開始年齢調整</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">カイシ </t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t xml:space="preserve">ネンレイチョウセイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>誕生年自動計算</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">タンジョウネン </t>
-    </rPh>
-    <rPh sb="3" eb="7">
-      <t xml:space="preserve">ジドウケイサン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算年</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キサン </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ネン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算課程</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">キサンガクネン </t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t xml:space="preserve">カテイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起算学年</t>
-    <rPh sb="0" eb="4">
-      <t xml:space="preserve">キサンガクネン </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カテゴリ名</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -188,13 +121,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>小学校</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ショウガッコウ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ホグワーツ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -245,16 +171,6 @@
   </si>
   <si>
     <t>マルフォイ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>幼稚園_小学校_ホグワーツ</t>
-    <rPh sb="0" eb="3">
-      <t xml:space="preserve">ヨウチエン </t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t xml:space="preserve">ショウガッコウ </t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -746,6 +662,191 @@
     <rPh sb="6" eb="8">
       <t xml:space="preserve">ニュウリョウ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャラクタ名</t>
+    <rPh sb="5" eb="6">
+      <t xml:space="preserve">メイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年起算年</t>
+    <rPh sb="3" eb="6">
+      <t xml:space="preserve">タンジョウネンキサンネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年起算学年</t>
+    <rPh sb="0" eb="7">
+      <t xml:space="preserve">タンジョウネンキサンガクネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編入学年</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">ヘンニュウガクネン </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレメンタリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>編入日</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ヘンニュウツキ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ヒ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起算日</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">ガクネンキサンビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生日詳細</t>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">タンジョウビ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡日詳細</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">シボウビショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年自動計算</t>
+    <rPh sb="0" eb="7">
+      <t>タンジョウネンジドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誕生年自動計算に使用</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">タンジョウビ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ネン </t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">ジドウケイサン </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">シヨウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基準所属年数</t>
+    <rPh sb="0" eb="6">
+      <t xml:space="preserve">キジュンネンスウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日時</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">カイシニチジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了日時</t>
+    <rPh sb="0" eb="4">
+      <t xml:space="preserve">シュウリョウニチジ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>以下を無視</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">イカヲ </t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t xml:space="preserve">ムシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経過時間粒度</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ケイカ </t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t xml:space="preserve">ジカンリュウド </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始時詳細</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">カイシジショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了時詳細</t>
+    <rPh sb="0" eb="5">
+      <t xml:space="preserve">シュウリョウジショウサイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日生まれ</t>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ウマレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日生まれ</t>
+    <rPh sb="1" eb="2">
+      <t xml:space="preserve">ニチ </t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t xml:space="preserve">ウマレ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1993-1994</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1990-1991</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1995-1996</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マホウトコロ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,7 +905,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -815,6 +916,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1141,25 +1245,25 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1170,246 +1274,160 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>213</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2">
-        <v>1991</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>61</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>1991</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>263</v>
       </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4">
-        <v>1991</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
         <v>212</v>
       </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5">
-        <v>1991</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
         <v>224</v>
       </c>
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="H6">
-        <v>1992</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1">
         <v>44</v>
       </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7">
-        <v>1992</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>157</v>
       </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="H8">
-        <v>1991</v>
-      </c>
-      <c r="I8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>245</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>203</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>246</v>
+      </c>
+      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1421,68 +1439,722 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22011244-DD10-664B-97BB-E936425FC29E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E6">
+        <v>6</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D9" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E9">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>188</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="B12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
+      <c r="D12" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E12">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E13">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E14">
+        <v>7</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E15">
+        <v>7</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E16">
         <v>12</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1991</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1991</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1991</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E19">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H19" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1991</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E20">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1992</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>7</v>
+      </c>
+      <c r="D21" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H21" t="b">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1992</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H22" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1991</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>202</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" s="4">
+        <v>44805</v>
+      </c>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1991</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>203</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4">
+        <v>44805</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>44920</v>
+      </c>
+      <c r="H24" t="b">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1991</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>203</v>
+      </c>
+      <c r="B25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4">
+        <v>44652</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4">
+        <v>44652</v>
       </c>
     </row>
   </sheetData>
@@ -1495,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
@@ -1515,10 +2187,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="E1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1526,16 +2198,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" s="1">
         <v>29890</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1543,19 +2215,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>33785</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -1563,19 +2235,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1">
         <v>33878</v>
       </c>
       <c r="D4" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
@@ -1583,19 +2255,19 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>33878</v>
       </c>
       <c r="D5" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -1603,19 +2275,19 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>34120</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1623,16 +2295,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1">
         <v>34151</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="2"/>
@@ -1641,10 +2313,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C8" s="1">
         <v>34491</v>
@@ -1656,19 +2328,19 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C9" s="1">
         <v>34516</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1676,10 +2348,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1">
         <v>34578</v>
@@ -1691,10 +2363,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1">
         <v>34638</v>
@@ -1706,16 +2378,16 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C12" s="1">
         <v>34662</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1723,16 +2395,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <v>34754</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1740,16 +2412,16 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C14" s="1">
         <v>34874</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -1757,19 +2429,19 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1">
         <v>34874</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1777,19 +2449,19 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1">
         <v>34881</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1797,16 +2469,16 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1">
         <v>34973</v>
       </c>
       <c r="D17" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
@@ -1815,16 +2487,16 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>35065</v>
       </c>
       <c r="D18" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="2"/>
@@ -1833,16 +2505,16 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1">
         <v>35234</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1850,19 +2522,19 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1">
         <v>35247</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -1870,16 +2542,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1">
         <v>35582</v>
       </c>
       <c r="D21" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="2"/>
@@ -1888,19 +2560,19 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C22" s="1">
         <v>35582</v>
       </c>
       <c r="D22" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1908,16 +2580,16 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1">
         <v>35582</v>
       </c>
       <c r="D23" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
@@ -1926,16 +2598,16 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C24" s="1">
         <v>35582</v>
       </c>
       <c r="D24" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="2"/>
@@ -1944,16 +2616,16 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C25" s="1">
         <v>35637</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1961,16 +2633,16 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C26" s="1">
         <v>35642</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -1978,16 +2650,16 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1">
         <v>35642</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1995,16 +2667,16 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C28" s="1">
         <v>35642</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -2012,16 +2684,16 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1">
         <v>35643</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -2029,16 +2701,16 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1">
         <v>35643</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2046,16 +2718,16 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1">
         <v>35643</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -2063,16 +2735,16 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1">
         <v>35643</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -2080,16 +2752,16 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1">
         <v>35643</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -2097,16 +2769,16 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C34" s="1">
         <v>35643</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -2114,19 +2786,19 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C35" s="1">
         <v>35643</v>
       </c>
       <c r="D35" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="2"/>
@@ -2135,19 +2807,19 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C36" s="1">
         <v>35643</v>
       </c>
       <c r="D36" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="2"/>
@@ -2156,19 +2828,19 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1">
         <v>35643</v>
       </c>
       <c r="D37" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="2"/>
@@ -2177,19 +2849,19 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1">
         <v>35643</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="2"/>
@@ -2198,22 +2870,22 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1">
         <v>35674</v>
       </c>
       <c r="D39" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
@@ -2221,22 +2893,22 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1">
         <v>35674</v>
       </c>
       <c r="D40" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
@@ -2244,22 +2916,22 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1">
         <v>35674</v>
       </c>
       <c r="D41" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
@@ -2267,19 +2939,19 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>35765</v>
       </c>
       <c r="D42" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="2"/>
@@ -2288,16 +2960,16 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C43" s="1">
         <v>35788</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
@@ -2305,16 +2977,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C44" s="1">
         <v>35788</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
@@ -2322,22 +2994,22 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C45" s="1">
         <v>35855</v>
       </c>
       <c r="D45" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
@@ -2345,22 +3017,22 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C46" s="1">
         <v>35855</v>
       </c>
       <c r="D46" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
@@ -2368,22 +3040,22 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C47" s="1">
         <v>35855</v>
       </c>
       <c r="D47" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
@@ -2391,22 +3063,22 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1">
         <v>35855</v>
       </c>
       <c r="D48" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
@@ -2414,22 +3086,22 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C49" s="1">
         <v>35855</v>
       </c>
       <c r="D49" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
@@ -2437,22 +3109,22 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C50" s="1">
         <v>35855</v>
       </c>
       <c r="D50" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
@@ -2460,22 +3132,22 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C51" s="1">
         <v>35855</v>
       </c>
       <c r="D51" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
@@ -2483,22 +3155,22 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C52" s="1">
         <v>35855</v>
       </c>
       <c r="D52" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
@@ -2506,22 +3178,22 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1">
         <v>35916</v>
       </c>
       <c r="D53" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
@@ -2529,22 +3201,22 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C54" s="1">
         <v>35916</v>
       </c>
       <c r="D54" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
@@ -2552,22 +3224,22 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>35916</v>
       </c>
       <c r="D55" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
@@ -2575,16 +3247,16 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C56" s="1">
         <v>35916</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
@@ -2592,16 +3264,16 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="C57" s="1">
         <v>35916</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
@@ -2609,16 +3281,16 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1">
         <v>35916</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2626,16 +3298,16 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C59" s="1">
         <v>35916</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2643,16 +3315,16 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C60" s="1">
         <v>35916</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2660,10 +3332,10 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C61" s="1">
         <v>35916</v>
@@ -2675,16 +3347,16 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C62" s="1">
         <v>35916</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -2692,16 +3364,16 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C63" s="1">
         <v>35916</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2709,16 +3381,16 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C64" s="1">
         <v>35916</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2726,16 +3398,16 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C65" s="1">
         <v>35916</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2743,10 +3415,10 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C66" s="1">
         <v>35916</v>
@@ -2758,16 +3430,16 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C67" s="1">
         <v>35916</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2775,16 +3447,16 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C68" s="1">
         <v>35916</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2792,16 +3464,16 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C69" s="1">
         <v>35916</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2809,16 +3481,16 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C70" s="1">
         <v>35916</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2826,10 +3498,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C71" s="1">
         <v>35916</v>
@@ -2841,16 +3513,16 @@
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="C72" s="1">
         <v>35916</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2858,16 +3530,16 @@
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C73" s="1">
         <v>35916</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -2875,19 +3547,19 @@
     </row>
     <row r="74" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C74" s="1">
         <v>33420</v>
       </c>
       <c r="D74" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="2"/>
@@ -2896,22 +3568,22 @@
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="C75" s="1">
         <v>33420</v>
       </c>
       <c r="D75" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -2919,22 +3591,22 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C76" s="1">
         <v>33420</v>
       </c>
       <c r="D76" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E76" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2942,16 +3614,16 @@
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C77" s="1">
         <v>33482</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -2959,16 +3631,16 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C78" s="1">
         <v>33482</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2976,16 +3648,16 @@
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C79" s="1">
         <v>33482</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2993,16 +3665,16 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C80" s="1">
         <v>33482</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -3010,16 +3682,16 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C81" s="1">
         <v>33482</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -3027,16 +3699,16 @@
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C82" s="1">
         <v>33542</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -3044,16 +3716,16 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C83" s="1">
         <v>33542</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -3061,16 +3733,16 @@
     </row>
     <row r="84" spans="1:9">
       <c r="A84" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C84" s="1">
         <v>33542</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -3078,10 +3750,10 @@
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C85" s="1">
         <v>33597</v>
@@ -3093,19 +3765,19 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C86" s="1">
         <v>33756</v>
       </c>
       <c r="D86" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E86" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F86" s="3"/>
       <c r="G86" s="2"/>
@@ -3114,22 +3786,22 @@
     </row>
     <row r="87" spans="1:9">
       <c r="A87" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C87" s="1">
         <v>33756</v>
       </c>
       <c r="D87" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E87" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -3137,22 +3809,22 @@
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C88" s="1">
         <v>33756</v>
       </c>
       <c r="D88" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -3160,22 +3832,22 @@
     </row>
     <row r="89" spans="1:9">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C89" s="1">
         <v>33756</v>
       </c>
       <c r="D89" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -3183,22 +3855,22 @@
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C90" s="1">
         <v>33786</v>
       </c>
       <c r="D90" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E90" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -3206,19 +3878,19 @@
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C91" s="1">
         <v>33786</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E91" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F91" s="3"/>
       <c r="G91" s="2"/>
@@ -3227,19 +3899,19 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="C92" s="1">
         <v>33786</v>
       </c>
       <c r="D92" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F92" s="3"/>
       <c r="G92" s="2"/>
@@ -3248,16 +3920,16 @@
     </row>
     <row r="93" spans="1:9">
       <c r="A93" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C93" s="1">
         <v>33848</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
@@ -3265,16 +3937,16 @@
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C94" s="1">
         <v>33848</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
@@ -3282,10 +3954,10 @@
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C95" s="1">
         <v>33908</v>
@@ -3297,10 +3969,10 @@
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C96" s="1">
         <v>33848</v>
@@ -3312,10 +3984,10 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C97" s="1">
         <v>33848</v>
@@ -3327,19 +3999,19 @@
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C98" s="1">
         <v>33970</v>
       </c>
       <c r="D98" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E98" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="2"/>
@@ -3348,22 +4020,22 @@
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="C99" s="1">
         <v>33970</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E99" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
@@ -3371,19 +4043,19 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C100" s="1">
         <v>34090</v>
       </c>
       <c r="D100" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E100" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="2"/>
@@ -3392,22 +4064,22 @@
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C101" s="1">
         <v>34090</v>
       </c>
       <c r="D101" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E101" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
@@ -3415,22 +4087,22 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C102" s="1">
         <v>34090</v>
       </c>
       <c r="D102" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E102" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
@@ -3438,22 +4110,22 @@
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C103" s="1">
         <v>34090</v>
       </c>
       <c r="D103" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E103" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="G103" s="2"/>
       <c r="H103" s="2"/>
@@ -3461,22 +4133,22 @@
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C104" s="1">
         <v>34090</v>
       </c>
       <c r="D104" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E104" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
@@ -3484,19 +4156,19 @@
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C105" s="1">
         <v>34090</v>
       </c>
       <c r="D105" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E105" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="2"/>
@@ -3505,10 +4177,10 @@
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C106" s="1">
         <v>34273</v>
@@ -3520,19 +4192,19 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C107" s="1">
         <v>33963</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E107" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="2"/>
@@ -3541,19 +4213,19 @@
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C108" s="1">
         <v>33963</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E108" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="2"/>
@@ -3562,19 +4234,19 @@
     </row>
     <row r="109" spans="1:9">
       <c r="A109" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C109" s="1">
         <v>33963</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E109" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="2"/>
@@ -3583,19 +4255,19 @@
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="C110" s="1">
         <v>33963</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E110" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="2"/>
@@ -3604,22 +4276,22 @@
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C111" s="1">
         <v>34151</v>
       </c>
       <c r="D111" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E111" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G111" s="2"/>
       <c r="H111" s="2"/>
@@ -3627,10 +4299,10 @@
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C112" s="1">
         <v>34212</v>
@@ -3642,10 +4314,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C113" s="1">
         <v>34212</v>
@@ -3657,10 +4329,10 @@
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C114" s="1">
         <v>34212</v>
@@ -3672,19 +4344,19 @@
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C115" s="1">
         <v>34486</v>
       </c>
       <c r="D115" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E115" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="2"/>
@@ -3693,19 +4365,19 @@
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C116" s="1">
         <v>34486</v>
       </c>
       <c r="D116" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="2"/>
@@ -3714,19 +4386,19 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="C117" s="1">
         <v>34486</v>
       </c>
       <c r="D117" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E117" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="2"/>
@@ -3735,10 +4407,10 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C118" s="1">
         <v>34693</v>
@@ -3750,10 +4422,10 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="C119" s="1">
         <v>34693</v>
@@ -3765,10 +4437,10 @@
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C120" s="1">
         <v>34693</v>
@@ -3780,10 +4452,10 @@
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C121" s="1">
         <v>34693</v>
@@ -3795,10 +4467,10 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C122" s="1">
         <v>34662</v>
@@ -3810,10 +4482,10 @@
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="C123" s="1">
         <v>34662</v>
@@ -3825,19 +4497,19 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C124" s="1">
         <v>34912</v>
       </c>
       <c r="D124" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E124" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="2"/>
@@ -3846,19 +4518,19 @@
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C125" s="1">
         <v>34912</v>
       </c>
       <c r="D125" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E125" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="2"/>
@@ -3867,19 +4539,19 @@
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C126" s="1">
         <v>34881</v>
       </c>
       <c r="D126" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E126" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="2"/>
@@ -3888,19 +4560,19 @@
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C127" s="1">
         <v>34881</v>
       </c>
       <c r="D127" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E127" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="2"/>
@@ -3909,19 +4581,19 @@
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C128" s="1">
         <v>34881</v>
       </c>
       <c r="D128" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E128" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="2"/>
@@ -3930,19 +4602,19 @@
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C129" s="1">
         <v>34912</v>
       </c>
       <c r="D129" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="2"/>
@@ -3951,19 +4623,19 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C130" s="1">
         <v>34912</v>
       </c>
       <c r="D130" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="E130" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="2"/>
@@ -3972,10 +4644,10 @@
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C131" s="1">
         <v>35234</v>
@@ -3987,10 +4659,10 @@
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C132" s="1">
         <v>35234</v>
@@ -4002,10 +4674,10 @@
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C133" s="1">
         <v>35234</v>
@@ -4017,10 +4689,10 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C134" s="1">
         <v>35234</v>
@@ -4032,10 +4704,10 @@
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C135" s="1">
         <v>35234</v>
@@ -4047,10 +4719,10 @@
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C136" s="1">
         <v>35234</v>
@@ -4062,10 +4734,10 @@
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C137" s="1">
         <v>35234</v>
@@ -4077,10 +4749,10 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="C138" s="1">
         <v>35247</v>
@@ -4092,10 +4764,10 @@
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C139" s="1">
         <v>35247</v>
@@ -4107,10 +4779,10 @@
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C140" s="1">
         <v>35247</v>
@@ -4122,10 +4794,10 @@
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C141" s="1">
         <v>35247</v>
@@ -4137,10 +4809,10 @@
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C142" s="1">
         <v>35247</v>
@@ -4152,13 +4824,133 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="C143" s="1">
         <v>14124</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15887EB-A3F8-B84B-833F-95113B8E9DB1}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="1">
+        <v>33970</v>
+      </c>
+      <c r="D2" s="1">
+        <v>34335</v>
+      </c>
+      <c r="E2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" s="1">
+        <v>32874</v>
+      </c>
+      <c r="D3" s="1">
+        <v>33239</v>
+      </c>
+      <c r="E3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" s="1">
+        <v>34700</v>
+      </c>
+      <c r="D4" s="1">
+        <v>35065</v>
+      </c>
+      <c r="E4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8D3E89-63ED-BC43-AB1A-5C41F902A888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA310CD-079F-9B44-8B53-450006B25B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="2" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="207">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -809,23 +809,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1日生まれ</t>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ウマレ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2日生まれ</t>
-    <rPh sb="1" eb="2">
-      <t xml:space="preserve">ニチ </t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t xml:space="preserve">ウマレ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1993-1994</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -843,10 +826,6 @@
   </si>
   <si>
     <t>1995-1996</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>マホウトコロ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1274,10 +1253,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1400,34 +1379,6 @@
         <v>157</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>202</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>245</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>203</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="1">
-        <v>246</v>
-      </c>
-      <c r="G10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1439,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22011244-DD10-664B-97BB-E936425FC29E}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2068,93 +2019,6 @@
       </c>
       <c r="J22">
         <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" t="s">
-        <v>202</v>
-      </c>
-      <c r="B23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4">
-        <v>44805</v>
-      </c>
-      <c r="E23">
-        <v>12</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" s="4">
-        <v>44805</v>
-      </c>
-      <c r="H23" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23">
-        <v>1991</v>
-      </c>
-      <c r="J23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" t="s">
-        <v>203</v>
-      </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>7</v>
-      </c>
-      <c r="D24" s="4">
-        <v>44805</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>44920</v>
-      </c>
-      <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24">
-        <v>1991</v>
-      </c>
-      <c r="J24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" t="s">
-        <v>203</v>
-      </c>
-      <c r="B25" t="s">
-        <v>209</v>
-      </c>
-      <c r="C25">
-        <v>7</v>
-      </c>
-      <c r="D25" s="4">
-        <v>44652</v>
-      </c>
-      <c r="E25">
-        <v>12</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" s="4">
-        <v>44652</v>
       </c>
     </row>
   </sheetData>
@@ -4880,7 +4744,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="1">
         <v>33970</v>
@@ -4895,10 +4759,10 @@
         <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4906,7 +4770,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C3" s="1">
         <v>32874</v>
@@ -4921,10 +4785,10 @@
         <v>176</v>
       </c>
       <c r="G3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4932,7 +4796,7 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C4" s="1">
         <v>34700</v>
@@ -4947,10 +4811,10 @@
         <v>176</v>
       </c>
       <c r="G4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA310CD-079F-9B44-8B53-450006B25B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E1964-7DD5-F044-8F74-1B27BD522C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="213">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -826,6 +826,33 @@
   </si>
   <si>
     <t>1995-1996</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>huga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#主人公 #hoge</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">シュジンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#hoge #huga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#hoge</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -918,7 +945,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1206,7 +1233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1253,15 +1280,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1283,8 +1310,11 @@
       <c r="G1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1294,11 +1324,20 @@
       <c r="C2" s="1">
         <v>213</v>
       </c>
+      <c r="E2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" t="s">
+        <v>208</v>
+      </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1312,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1326,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1340,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -1354,7 +1393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>27</v>
       </c>
@@ -1368,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2031,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2059,6 +2098,9 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -2073,7 +2115,9 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" t="s">
+        <v>211</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
@@ -4050,7 +4094,9 @@
         <v>34273</v>
       </c>
       <c r="F106" s="3"/>
-      <c r="G106" s="2"/>
+      <c r="G106" s="2" t="s">
+        <v>212</v>
+      </c>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
@@ -4705,15 +4751,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15887EB-A3F8-B84B-833F-95113B8E9DB1}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4738,8 +4784,11 @@
       <c r="H1" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4764,8 +4813,11 @@
       <c r="H2" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4791,7 +4843,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>17</v>
       </c>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E1964-7DD5-F044-8F74-1B27BD522C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8041F-5592-724A-8E70-C207BF35EED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
@@ -24,21 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="215">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -853,6 +844,20 @@
   </si>
   <si>
     <t>#hoge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要イベント</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">ジュウヨウイベント </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重要イベント</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -945,7 +950,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1233,7 +1238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2070,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2099,6 +2104,9 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>213</v>
+      </c>
+      <c r="H1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2115,10 +2123,10 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
@@ -4094,10 +4102,10 @@
         <v>34273</v>
       </c>
       <c r="F106" s="3"/>
-      <c r="G106" s="2" t="s">
+      <c r="G106" s="2"/>
+      <c r="H106" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
     <row r="107" spans="1:9">
@@ -4751,15 +4759,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15887EB-A3F8-B84B-833F-95113B8E9DB1}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4785,10 +4793,13 @@
         <v>201</v>
       </c>
       <c r="I1" t="s">
+        <v>214</v>
+      </c>
+      <c r="J1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4813,11 +4824,11 @@
       <c r="H2" t="s">
         <v>204</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4843,7 +4854,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>17</v>
       </c>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F8041F-5592-724A-8E70-C207BF35EED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8806D5C4-D84F-8C42-979C-661371252D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -2075,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2123,7 +2123,9 @@
       <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2" t="b">
+        <v>1</v>
+      </c>
       <c r="H2" t="s">
         <v>211</v>
       </c>
@@ -4761,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15887EB-A3F8-B84B-833F-95113B8E9DB1}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4824,6 +4826,9 @@
       <c r="H2" t="s">
         <v>204</v>
       </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>211</v>
       </c>
@@ -4852,6 +4857,9 @@
       </c>
       <c r="H3" t="s">
         <v>204</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8806D5C4-D84F-8C42-979C-661371252D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682DD874-3A50-1E48-9A82-2306F566E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="216">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -858,6 +858,10 @@
     <rPh sb="0" eb="2">
       <t>ジュウヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴォルデモート</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1285,13 +1289,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <cols>
+    <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
@@ -1424,6 +1431,23 @@
       </c>
       <c r="G8" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9862</v>
+      </c>
+      <c r="D9" s="1">
+        <v>29890</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4763,7 +4787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15887EB-A3F8-B84B-833F-95113B8E9DB1}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682DD874-3A50-1E48-9A82-2306F566E8BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE4EAF-4730-7A4C-AA5F-EF1A38B51273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="7940" windowWidth="27900" windowHeight="16940" activeTab="1" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="14360" yWindow="5380" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="218">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -862,6 +862,14 @@
   </si>
   <si>
     <t>ヴォルデモート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバッグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minute</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -920,7 +928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +942,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1291,7 +1302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CB73543-1884-F24E-8FF5-CA489405D8B2}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2097,15 +2108,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:I143"/>
+  <dimension ref="A1:I145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4775,6 +4786,34 @@
       </c>
       <c r="C143" s="1">
         <v>14124</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144" s="5">
+        <v>45583.5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" s="5">
+        <v>36086.416666666664</v>
+      </c>
+      <c r="D145" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BBE4EAF-4730-7A4C-AA5F-EF1A38B51273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D7261-02A6-EE4E-831C-009DE6567CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14360" yWindow="5380" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
+    <workbookView xWindow="14360" yWindow="5380" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
   <sheets>
     <sheet name="カテゴリー" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="221">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -870,6 +870,21 @@
   </si>
   <si>
     <t>minute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#主人公</t>
+    <rPh sb="1" eb="4">
+      <t xml:space="preserve">シュジンコウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグイベント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タグイベント期間</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -965,9 +980,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1005,7 +1020,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1111,7 +1126,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1253,7 +1268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1303,7 +1318,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1472,7 +1487,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD25"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2108,10 +2123,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:I145"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146:C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4816,6 +4831,17 @@
         <v>217</v>
       </c>
     </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C146" s="1">
+        <v>32874</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4824,10 +4850,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15887EB-A3F8-B84B-833F-95113B8E9DB1}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -4951,6 +4977,32 @@
         <v>204</v>
       </c>
     </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="1">
+        <v>33604</v>
+      </c>
+      <c r="D5" s="1">
+        <v>33729</v>
+      </c>
+      <c r="E5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" t="s">
+        <v>176</v>
+      </c>
+      <c r="G5" t="s">
+        <v>203</v>
+      </c>
+      <c r="H5" t="s">
+        <v>204</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/sample.xlsx
+++ b/data/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiho/Script/Web/chronicliner/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D7261-02A6-EE4E-831C-009DE6567CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3E4F34-0F78-EB4C-B0BD-4848E6670B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14360" yWindow="5380" windowWidth="27900" windowHeight="16940" activeTab="4" xr2:uid="{D125DCEA-AF8F-4C46-AD2C-B6390BEF02A8}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="226">
   <si>
     <t>カテゴリ</t>
     <phoneticPr fontId="1"/>
@@ -885,6 +885,32 @@
   </si>
   <si>
     <t>タグイベント期間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寮フラグ</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>flag2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>寮フラグ回収</t>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">リョウ </t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2123,10 +2149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B56DC81-C77C-8C49-8450-138C04F745AF}">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146:C146"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2159,6 +2185,9 @@
       <c r="H1" t="s">
         <v>209</v>
       </c>
+      <c r="I1" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
@@ -4817,7 +4846,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:9">
       <c r="A145" s="2" t="s">
         <v>16</v>
       </c>
@@ -4831,7 +4860,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:9">
       <c r="A146" s="2" t="s">
         <v>218</v>
       </c>
@@ -4840,6 +4869,20 @@
       </c>
       <c r="C146" s="1">
         <v>32874</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C147" s="1">
+        <v>33971</v>
+      </c>
+      <c r="I147" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -4850,15 +4893,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B15887EB-A3F8-B84B-833F-95113B8E9DB1}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4889,8 +4932,11 @@
       <c r="J1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -4922,7 +4968,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4951,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4977,7 +5023,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -5001,6 +5047,38 @@
       </c>
       <c r="H5" t="s">
         <v>204</v>
+      </c>
+      <c r="K5" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="1">
+        <v>33970</v>
+      </c>
+      <c r="D6" s="1">
+        <v>34094</v>
+      </c>
+      <c r="E6" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="K6" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
